--- a/biology/Zoologie/Diplostraca/Diplostraca.xlsx
+++ b/biology/Zoologie/Diplostraca/Diplostraca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  Diplostracés (en latin : Diplostraca) constituent un ordre de crustacés de la classe des Branchiopoda.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont généralement des crustacés de petite taille (1 à 2 mm), avec une carapace bivalve laissant la tête libre et des antennes biramées natatoires. La segmentation est indistincte. Les yeux sont fusionnés en un seul œil médian. La reproduction se fait par reproduction sexuée en période défavorable (hiver) et par parthogénèse cyclique en période favorable (été).
 De nombreuses espèces sont connues des biologistes et des aquariophiles sous le nom de « daphnies ». 
@@ -543,9 +557,11 @@
           <t>Liste des sous-ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 novembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 novembre 2015) :
 sous-ordre Cladocera Latreille, 1829
 infra-ordre Anomopoda Stebbing, 1902
 famille Bosminidae Baird, 1845
@@ -568,15 +584,15 @@
 sous-ordre Laevicaudata Linder, 1945
 famille Lynceidae Baird, 1845
 sous-ordre Spinicaudata Linder, 1945
-famille Asmussiidae[3]
+famille Asmussiidae
 famille Cyzicidae Stebbing, 1910
-famille Estheriellidae[3]
-famille Ipsiloniidae[3]
-famille Leaiidae[3]
+famille Estheriellidae
+famille Ipsiloniidae
+famille Leaiidae
 famille Leptestheriidae Daday, 1923
 famille Limnadiidae Baird, 1849
-famille Pemphilimnadiopsidae[3]
-famille Vertexiidae[3]
+famille Pemphilimnadiopsidae
+famille Vertexiidae
 			Bythotrephes cederstroemii
 			Daphnia magna
 			Moina sp.
